--- a/data/Panguipulli.xlsx
+++ b/data/Panguipulli.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Panguipulli.xlsx
+++ b/data/Panguipulli.xlsx
@@ -4991,7 +4991,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">

--- a/data/Panguipulli.xlsx
+++ b/data/Panguipulli.xlsx
@@ -4991,7 +4991,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F97" t="n">

--- a/data/Panguipulli.xlsx
+++ b/data/Panguipulli.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">

--- a/data/Panguipulli.xlsx
+++ b/data/Panguipulli.xlsx
@@ -4991,7 +4991,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
